--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H2">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I2">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J2">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N2">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O2">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P2">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q2">
-        <v>78.69395374821057</v>
+        <v>78.69454918284599</v>
       </c>
       <c r="R2">
-        <v>78.69395374821057</v>
+        <v>314.778196731384</v>
       </c>
       <c r="S2">
-        <v>0.08039704730967927</v>
+        <v>0.04256015367639851</v>
       </c>
       <c r="T2">
-        <v>0.08039704730967927</v>
+        <v>0.03153848175706379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H3">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I3">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J3">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N3">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P3">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q3">
-        <v>17.96515864456643</v>
+        <v>19.314497292804</v>
       </c>
       <c r="R3">
-        <v>17.96515864456643</v>
+        <v>115.886983756824</v>
       </c>
       <c r="S3">
-        <v>0.01835396038295945</v>
+        <v>0.01044580573241671</v>
       </c>
       <c r="T3">
-        <v>0.01835396038295945</v>
+        <v>0.01161103138987307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H4">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I4">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J4">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N4">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O4">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P4">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q4">
-        <v>28.11679377693444</v>
+        <v>30.126085697394</v>
       </c>
       <c r="R4">
-        <v>28.11679377693444</v>
+        <v>180.756514184364</v>
       </c>
       <c r="S4">
-        <v>0.02872529707572477</v>
+        <v>0.01629300695236628</v>
       </c>
       <c r="T4">
-        <v>0.02872529707572477</v>
+        <v>0.01811048568252258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H5">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I5">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J5">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N5">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O5">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P5">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q5">
-        <v>16.23472515317177</v>
+        <v>17.560046184804</v>
       </c>
       <c r="R5">
-        <v>16.23472515317177</v>
+        <v>105.360277108824</v>
       </c>
       <c r="S5">
-        <v>0.0165860768716157</v>
+        <v>0.009496950830144971</v>
       </c>
       <c r="T5">
-        <v>0.0165860768716157</v>
+        <v>0.01055633208405292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H6">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I6">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J6">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N6">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O6">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P6">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q6">
-        <v>40.37825335210913</v>
+        <v>40.959877265028</v>
       </c>
       <c r="R6">
-        <v>40.37825335210913</v>
+        <v>245.759263590168</v>
       </c>
       <c r="S6">
-        <v>0.0412521190054649</v>
+        <v>0.02215221624709443</v>
       </c>
       <c r="T6">
-        <v>0.0412521190054649</v>
+        <v>0.02462328754612618</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H7">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I7">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J7">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N7">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O7">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P7">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q7">
-        <v>5.588411677994828</v>
+        <v>6.690760894538999</v>
       </c>
       <c r="R7">
-        <v>5.588411677994828</v>
+        <v>26.763043578156</v>
       </c>
       <c r="S7">
-        <v>0.005709356013541647</v>
+        <v>0.003618545564343737</v>
       </c>
       <c r="T7">
-        <v>0.005709356013541647</v>
+        <v>0.002681461964068177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H8">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J8">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N8">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O8">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P8">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q8">
-        <v>33.39632254025112</v>
+        <v>39.60977251521166</v>
       </c>
       <c r="R8">
-        <v>33.39632254025112</v>
+        <v>237.6586350912699</v>
       </c>
       <c r="S8">
-        <v>0.0341190853344172</v>
+        <v>0.02142204285861857</v>
       </c>
       <c r="T8">
-        <v>0.0341190853344172</v>
+        <v>0.02381166359381267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H9">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J9">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N9">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P9">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q9">
-        <v>7.624095677037496</v>
+        <v>9.721675159941109</v>
       </c>
       <c r="R9">
-        <v>7.624095677037496</v>
+        <v>87.49507643946998</v>
       </c>
       <c r="S9">
-        <v>0.007789096260197027</v>
+        <v>0.005257746477939174</v>
       </c>
       <c r="T9">
-        <v>0.007789096260197027</v>
+        <v>0.008766369147460085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H10">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J10">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N10">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O10">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P10">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q10">
-        <v>11.93227013064622</v>
+        <v>15.16353309903278</v>
       </c>
       <c r="R10">
-        <v>11.93227013064622</v>
+        <v>136.471797891295</v>
       </c>
       <c r="S10">
-        <v>0.01219050817137588</v>
+        <v>0.008200851338159362</v>
       </c>
       <c r="T10">
-        <v>0.01219050817137588</v>
+        <v>0.01367347977986296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H11">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J11">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N11">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O11">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P11">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q11">
-        <v>6.889730300022965</v>
+        <v>8.838597361052221</v>
       </c>
       <c r="R11">
-        <v>6.889730300022965</v>
+        <v>79.54737624946999</v>
       </c>
       <c r="S11">
-        <v>0.007038837756890217</v>
+        <v>0.004780153973512966</v>
       </c>
       <c r="T11">
-        <v>0.007038837756890217</v>
+        <v>0.007970067497422911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H12">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J12">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N12">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O12">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P12">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q12">
-        <v>17.13581677283149</v>
+        <v>20.61656668175444</v>
       </c>
       <c r="R12">
-        <v>17.13581677283149</v>
+        <v>185.54910013579</v>
       </c>
       <c r="S12">
-        <v>0.01750666990482297</v>
+        <v>0.01115000029057227</v>
       </c>
       <c r="T12">
-        <v>0.01750666990482297</v>
+        <v>0.01859066787483367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H13">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J13">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N13">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O13">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P13">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q13">
-        <v>2.371623104402288</v>
+        <v>3.367698522175833</v>
       </c>
       <c r="R13">
-        <v>2.371623104402288</v>
+        <v>20.206191133055</v>
       </c>
       <c r="S13">
-        <v>0.002422949741925946</v>
+        <v>0.001821343004412648</v>
       </c>
       <c r="T13">
-        <v>0.002422949741925946</v>
+        <v>0.002024513123993196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H14">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I14">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J14">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N14">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O14">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P14">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q14">
-        <v>40.07561776116639</v>
+        <v>43.081738776391</v>
       </c>
       <c r="R14">
-        <v>40.07561776116639</v>
+        <v>258.490432658346</v>
       </c>
       <c r="S14">
-        <v>0.04094293377885314</v>
+        <v>0.023299776693674</v>
       </c>
       <c r="T14">
-        <v>0.04094293377885314</v>
+        <v>0.02589885792416435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H15">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I15">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J15">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N15">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P15">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q15">
-        <v>9.148921823930209</v>
+        <v>10.57382163830067</v>
       </c>
       <c r="R15">
-        <v>9.148921823930209</v>
+        <v>95.164394744706</v>
       </c>
       <c r="S15">
-        <v>0.009346922675464121</v>
+        <v>0.005718610482503422</v>
       </c>
       <c r="T15">
-        <v>0.009346922675464121</v>
+        <v>0.009534778961006379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H16">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I16">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J16">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N16">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O16">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P16">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q16">
-        <v>14.31873513026519</v>
+        <v>16.49268174031567</v>
       </c>
       <c r="R16">
-        <v>14.31873513026519</v>
+        <v>148.434135662841</v>
       </c>
       <c r="S16">
-        <v>0.01462862101662891</v>
+        <v>0.008919691092871459</v>
       </c>
       <c r="T16">
-        <v>0.01462862101662891</v>
+        <v>0.01487201886388245</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H17">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I17">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J17">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N17">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O17">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P17">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q17">
-        <v>8.267682696155036</v>
+        <v>9.613338286967334</v>
       </c>
       <c r="R17">
-        <v>8.267682696155036</v>
+        <v>86.52004458270601</v>
       </c>
       <c r="S17">
-        <v>0.008446611781522131</v>
+        <v>0.005199154948913814</v>
       </c>
       <c r="T17">
-        <v>0.008446611781522131</v>
+        <v>0.008668678059746826</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H18">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I18">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J18">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N18">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O18">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P18">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q18">
-        <v>20.56299588631937</v>
+        <v>22.42369707900467</v>
       </c>
       <c r="R18">
-        <v>20.56299588631937</v>
+        <v>201.813273711042</v>
       </c>
       <c r="S18">
-        <v>0.02100801998576354</v>
+        <v>0.01212734558600762</v>
       </c>
       <c r="T18">
-        <v>0.02100801998576354</v>
+        <v>0.02022021956209532</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.62421840465853</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H19">
-        <v>0.62421840465853</v>
+        <v>2.013123</v>
       </c>
       <c r="I19">
-        <v>0.09728065115680413</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J19">
-        <v>0.09728065115680413</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N19">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O19">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P19">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q19">
-        <v>2.845949906341461</v>
+        <v>3.6628917258815</v>
       </c>
       <c r="R19">
-        <v>2.845949906341461</v>
+        <v>21.977350355289</v>
       </c>
       <c r="S19">
-        <v>0.002907541918572297</v>
+        <v>0.001980991521932591</v>
       </c>
       <c r="T19">
-        <v>0.002907541918572297</v>
+        <v>0.00220197037293649</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H20">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I20">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J20">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N20">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O20">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P20">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q20">
-        <v>259.7928797107321</v>
+        <v>591.1916242463734</v>
       </c>
       <c r="R20">
-        <v>259.7928797107321</v>
+        <v>2364.766496985494</v>
       </c>
       <c r="S20">
-        <v>0.2654153139598286</v>
+        <v>0.3197325182162679</v>
       </c>
       <c r="T20">
-        <v>0.2654153139598286</v>
+        <v>0.2369323726971359</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H21">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I21">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J21">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N21">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P21">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q21">
-        <v>59.30849927384914</v>
+        <v>145.0998721589223</v>
       </c>
       <c r="R21">
-        <v>59.30849927384914</v>
+        <v>870.5992329535338</v>
       </c>
       <c r="S21">
-        <v>0.06059205307236393</v>
+        <v>0.07847395939915561</v>
       </c>
       <c r="T21">
-        <v>0.06059205307236393</v>
+        <v>0.08722769973058048</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H22">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I22">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J22">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N22">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O22">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P22">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q22">
-        <v>92.82216073313876</v>
+        <v>226.3217684142998</v>
       </c>
       <c r="R22">
-        <v>92.82216073313876</v>
+        <v>1357.930610485799</v>
       </c>
       <c r="S22">
-        <v>0.09483101677323594</v>
+        <v>0.1224009711479044</v>
       </c>
       <c r="T22">
-        <v>0.09483101677323594</v>
+        <v>0.1360547529367523</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H23">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I23">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J23">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N23">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O23">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P23">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q23">
-        <v>53.59580752988479</v>
+        <v>131.9195844392556</v>
       </c>
       <c r="R23">
-        <v>53.59580752988479</v>
+        <v>791.5175066355339</v>
       </c>
       <c r="S23">
-        <v>0.05475572732522153</v>
+        <v>0.07134570113129531</v>
       </c>
       <c r="T23">
-        <v>0.05475572732522153</v>
+        <v>0.07930428696344494</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H24">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I24">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J24">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N24">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O24">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P24">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q24">
-        <v>133.3009998404418</v>
+        <v>307.7104656001063</v>
       </c>
       <c r="R24">
-        <v>133.3009998404418</v>
+        <v>1846.262793600638</v>
       </c>
       <c r="S24">
-        <v>0.1361858984095489</v>
+        <v>0.1664181933789056</v>
       </c>
       <c r="T24">
-        <v>0.1361858984095489</v>
+        <v>0.1849820795701695</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.04653766989015</v>
+        <v>9.208398499999999</v>
       </c>
       <c r="H25">
-        <v>4.04653766989015</v>
+        <v>18.416797</v>
       </c>
       <c r="I25">
-        <v>0.630628345014581</v>
+        <v>0.7855556127281175</v>
       </c>
       <c r="J25">
-        <v>0.630628345014581</v>
+        <v>0.744645634815076</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N25">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O25">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P25">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q25">
-        <v>18.44906112457686</v>
+        <v>50.26424119281774</v>
       </c>
       <c r="R25">
-        <v>18.44906112457686</v>
+        <v>201.056964771271</v>
       </c>
       <c r="S25">
-        <v>0.01884833547438195</v>
+        <v>0.02718426945458889</v>
       </c>
       <c r="T25">
-        <v>0.01884833547438195</v>
+        <v>0.02014444291699296</v>
       </c>
     </row>
   </sheetData>
